--- a/fhir/ig/tei/0.2.1/CodeSystem-CSMotivoCierreInterconsulta.xlsx
+++ b/fhir/ig/tei/0.2.1/CodeSystem-CSMotivoCierreInterconsulta.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="75">
   <si>
     <t>Property</t>
   </si>
@@ -580,7 +580,9 @@
       <c r="C2" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
@@ -592,7 +594,9 @@
       <c r="C3" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
@@ -604,7 +608,9 @@
       <c r="C4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
@@ -616,7 +622,9 @@
       <c r="C5" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
@@ -628,7 +636,9 @@
       <c r="C6" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
@@ -640,7 +650,9 @@
       <c r="C7" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
@@ -652,7 +664,9 @@
       <c r="C8" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
@@ -664,7 +678,9 @@
       <c r="C9" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
@@ -676,7 +692,9 @@
       <c r="C10" t="s" s="2">
         <v>57</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
@@ -688,7 +706,9 @@
       <c r="C11" t="s" s="2">
         <v>59</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
@@ -700,7 +720,9 @@
       <c r="C12" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
@@ -712,7 +734,9 @@
       <c r="C13" t="s" s="2">
         <v>63</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -724,7 +748,9 @@
       <c r="C14" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -736,7 +762,9 @@
       <c r="C15" t="s" s="2">
         <v>67</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
@@ -748,7 +776,9 @@
       <c r="C16" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
@@ -760,7 +790,9 @@
       <c r="C17" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
@@ -772,7 +804,9 @@
       <c r="C18" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
@@ -784,7 +818,9 @@
       <c r="C19" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
